--- a/Manipulacion de datos/excel_CSV/grafica.xlsx
+++ b/Manipulacion de datos/excel_CSV/grafica.xlsx
@@ -356,6 +356,9 @@
         <crossAx val="10"/>
       </valAx>
     </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
